--- a/data/grille.xlsx
+++ b/data/grille.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/engels/VirtualBox VMs/SciViews Box 2019/shared/projects/bds/sdd_tempalte/sdd1_penguins/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/engels/VirtualBox VMs/SciViews Box 2019/shared/projects/bds/sdd_template/sdd2_penguins/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CC054A-A59C-934A-86F6-C8F92DA0F881}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF1548E-56B3-164E-B03A-55AAFC2DA682}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22900" yWindow="2600" windowWidth="14000" windowHeight="17440" xr2:uid="{1750453A-0B73-624C-900F-6C19AE1F5879}"/>
+    <workbookView xWindow="3480" yWindow="6060" windowWidth="22060" windowHeight="17440" xr2:uid="{1750453A-0B73-624C-900F-6C19AE1F5879}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="28">
   <si>
     <t>type</t>
   </si>
@@ -95,38 +95,42 @@
     <t>But du rapport scientifique</t>
   </si>
   <si>
-    <t>Résultats : au minimum 2 et maximum 4 graphiques corrects et commentés</t>
-  </si>
-  <si>
-    <t>Résultats : au minimum 1 et maximum 2 tableaux corrects et commentés</t>
-  </si>
-  <si>
-    <t>Résultats : utilisation de l'analyse statistique la plus pertinente.</t>
-  </si>
-  <si>
-    <t>Résultats : utilisation de minimum 1 et de maximum 2 tests statistiques corrects et commentés.</t>
-  </si>
-  <si>
     <t>Discussion et conclusion</t>
   </si>
   <si>
-    <t>Analyses avec au minimum 5 et maximum 10 graphiques corrects et commentés</t>
-  </si>
-  <si>
-    <t>Analyses avec au minimum 2 et maximum 5 tableaux corrects et commentés</t>
-  </si>
-  <si>
-    <t>Analuse avec au minimum 3 et maximum 5 tests statistiques corrects et commentés</t>
+    <t>Application et description des techniques du module 5</t>
+  </si>
+  <si>
+    <t>Application et description des techniques du module 6</t>
+  </si>
+  <si>
+    <t>Application et description des techniques du module 7</t>
+  </si>
+  <si>
+    <t>Application et description des techniques du module 8</t>
+  </si>
+  <si>
+    <t>Résultats : utilisation judicieuse des outils d'analyses (Mod5 - Mod8)</t>
+  </si>
+  <si>
+    <t>Résultats : analyses correctes et commentées</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -152,8 +156,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,416 +474,396 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F7922F-C86F-E143-B124-CEFFB7A6C3E9}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C21" sqref="C21:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.5" customWidth="1"/>
-    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="2" max="2" width="59.33203125" customWidth="1"/>
     <col min="3" max="3" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>-1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
         <v>-1</v>
       </c>
-      <c r="D3">
+      <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>-1</v>
-      </c>
-      <c r="D4">
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
+      <c r="E11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="E12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
         <v>2</v>
       </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="E18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
         <v>2</v>
       </c>
-      <c r="E16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="E19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>6</v>
       </c>
     </row>
